--- a/data/Leavers.xlsx
+++ b/data/Leavers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="401">
   <si>
     <t>NAMES</t>
   </si>
@@ -1169,16 +1169,10 @@
     <t>SEKANYAMBO IMPANO ATONE</t>
   </si>
   <si>
-    <t>CHILD</t>
-  </si>
-  <si>
     <t>SEKANYAMBO INGANJI SHAMI</t>
   </si>
   <si>
     <t>TUYISABE CHRISTELLE</t>
-  </si>
-  <si>
-    <t>SPOUSE</t>
   </si>
   <si>
     <t>SEKANYAMBO IRISA AGANZE</t>
@@ -1868,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D336" sqref="D336:D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3071,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="93.6">
+    <row r="71" spans="1:5" ht="31.2">
       <c r="A71" s="15" t="s">
         <v>102</v>
       </c>
@@ -3088,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="78">
+    <row r="72" spans="1:5" ht="15.6">
       <c r="A72" s="17" t="s">
         <v>104</v>
       </c>
@@ -3105,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="62.4">
+    <row r="73" spans="1:5" ht="15.6">
       <c r="A73" s="15" t="s">
         <v>106</v>
       </c>
@@ -3122,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="78">
+    <row r="74" spans="1:5" ht="15.6">
       <c r="A74" s="15" t="s">
         <v>107</v>
       </c>
@@ -3139,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="62.4">
+    <row r="75" spans="1:5" ht="15.6">
       <c r="A75" s="15" t="s">
         <v>109</v>
       </c>
@@ -3156,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="62.4">
+    <row r="76" spans="1:5" ht="15.6">
       <c r="A76" s="15" t="s">
         <v>110</v>
       </c>
@@ -3173,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="62.4">
+    <row r="77" spans="1:5" ht="15.6">
       <c r="A77" s="15" t="s">
         <v>110</v>
       </c>
@@ -3190,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="46.8">
+    <row r="78" spans="1:5" ht="15.6">
       <c r="A78" s="17" t="s">
         <v>112</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="31.2">
+    <row r="79" spans="1:5" ht="15.6">
       <c r="A79" s="15" t="s">
         <v>114</v>
       </c>
@@ -3224,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="46.8">
+    <row r="80" spans="1:5" ht="15.6">
       <c r="A80" s="15" t="s">
         <v>116</v>
       </c>
@@ -3241,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="78">
+    <row r="81" spans="1:5" ht="15.6">
       <c r="A81" s="17" t="s">
         <v>118</v>
       </c>
@@ -3258,7 +3252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="78">
+    <row r="82" spans="1:5" ht="15.6">
       <c r="A82" s="15" t="s">
         <v>119</v>
       </c>
@@ -3275,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="46.8">
+    <row r="83" spans="1:5" ht="15.6">
       <c r="A83" s="15" t="s">
         <v>120</v>
       </c>
@@ -3292,7 +3286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="31.2">
+    <row r="84" spans="1:5" ht="15.6">
       <c r="A84" s="15" t="s">
         <v>122</v>
       </c>
@@ -3309,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="31.2">
+    <row r="85" spans="1:5" ht="15.6">
       <c r="A85" s="15" t="s">
         <v>123</v>
       </c>
@@ -3326,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="78">
+    <row r="86" spans="1:5" ht="15.6">
       <c r="A86" s="17" t="s">
         <v>125</v>
       </c>
@@ -3343,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="46.8">
+    <row r="87" spans="1:5" ht="15.6">
       <c r="A87" s="17" t="s">
         <v>127</v>
       </c>
@@ -3360,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="62.4">
+    <row r="88" spans="1:5" ht="15.6">
       <c r="A88" s="17" t="s">
         <v>129</v>
       </c>
@@ -5109,7 +5103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="31.2">
+    <row r="191" spans="1:5" ht="15.6">
       <c r="A191" s="30" t="s">
         <v>269</v>
       </c>
@@ -5126,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="31.2">
+    <row r="192" spans="1:5" ht="15.6">
       <c r="A192" s="30" t="s">
         <v>272</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="46.8">
+    <row r="196" spans="1:5" ht="15.6">
       <c r="A196" s="30" t="s">
         <v>277</v>
       </c>
@@ -5211,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="62.4">
+    <row r="197" spans="1:5" ht="15.6">
       <c r="A197" s="30" t="s">
         <v>278</v>
       </c>
@@ -5279,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="78">
+    <row r="201" spans="1:5" ht="15.6">
       <c r="A201" s="30" t="s">
         <v>284</v>
       </c>
@@ -5296,7 +5290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="46.8">
+    <row r="202" spans="1:5" ht="15.6">
       <c r="A202" s="30" t="s">
         <v>285</v>
       </c>
@@ -5313,7 +5307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="78">
+    <row r="203" spans="1:5" ht="15.6">
       <c r="A203" s="30" t="s">
         <v>287</v>
       </c>
@@ -5381,7 +5375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="62.4">
+    <row r="207" spans="1:5" ht="15.6">
       <c r="A207" s="30" t="s">
         <v>291</v>
       </c>
@@ -7296,7 +7290,7 @@
         <v>10</v>
       </c>
       <c r="D319" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E319" s="44">
         <v>2</v>
@@ -7304,7 +7298,7 @@
     </row>
     <row r="320" spans="1:5" ht="15.6">
       <c r="A320" s="50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B320" s="51">
         <v>44963</v>
@@ -7313,7 +7307,7 @@
         <v>6</v>
       </c>
       <c r="D320" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E320" s="44">
         <v>2</v>
@@ -7321,7 +7315,7 @@
     </row>
     <row r="321" spans="1:5" ht="15.6">
       <c r="A321" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B321" s="51">
         <v>33894</v>
@@ -7330,7 +7324,7 @@
         <v>10</v>
       </c>
       <c r="D321" s="52" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="E321" s="44">
         <v>2</v>
@@ -7338,7 +7332,7 @@
     </row>
     <row r="322" spans="1:5" ht="15.6">
       <c r="A322" s="50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B322" s="51">
         <v>43475</v>
@@ -7347,7 +7341,7 @@
         <v>6</v>
       </c>
       <c r="D322" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E322" s="44">
         <v>2</v>
@@ -7355,7 +7349,7 @@
     </row>
     <row r="323" spans="1:5" ht="15.6">
       <c r="A323" s="53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B323" s="38">
         <v>31223</v>
@@ -7372,7 +7366,7 @@
     </row>
     <row r="324" spans="1:5" ht="15.6">
       <c r="A324" s="53" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B324" s="38">
         <v>45231</v>
@@ -7389,7 +7383,7 @@
     </row>
     <row r="325" spans="1:5" ht="15.6">
       <c r="A325" s="54" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B325" s="55">
         <v>32144</v>
@@ -7406,7 +7400,7 @@
     </row>
     <row r="326" spans="1:5" ht="15.6">
       <c r="A326" s="57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B326" s="58">
         <v>33601</v>
@@ -7415,7 +7409,7 @@
         <v>10</v>
       </c>
       <c r="D326" s="52" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="E326" s="44">
         <v>2</v>
@@ -7423,7 +7417,7 @@
     </row>
     <row r="327" spans="1:5" ht="15.6">
       <c r="A327" s="57" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B327" s="58">
         <v>40692</v>
@@ -7432,7 +7426,7 @@
         <v>10</v>
       </c>
       <c r="D327" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E327" s="44">
         <v>2</v>
@@ -7440,7 +7434,7 @@
     </row>
     <row r="328" spans="1:5" ht="15.6">
       <c r="A328" s="57" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B328" s="58">
         <v>42676</v>
@@ -7449,7 +7443,7 @@
         <v>6</v>
       </c>
       <c r="D328" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E328" s="44">
         <v>2</v>
@@ -7457,7 +7451,7 @@
     </row>
     <row r="329" spans="1:5" ht="15.6">
       <c r="A329" s="57" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B329" s="58">
         <v>43525</v>
@@ -7466,7 +7460,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E329" s="44">
         <v>2</v>
@@ -7474,7 +7468,7 @@
     </row>
     <row r="330" spans="1:5" ht="15.6">
       <c r="A330" s="54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B330" s="55">
         <v>35059</v>
@@ -7491,7 +7485,7 @@
     </row>
     <row r="331" spans="1:5" ht="15.6">
       <c r="A331" s="54" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B331" s="55">
         <v>36352</v>
@@ -7508,7 +7502,7 @@
     </row>
     <row r="332" spans="1:5" ht="15.6">
       <c r="A332" s="54" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B332" s="55">
         <v>37190</v>
@@ -7525,7 +7519,7 @@
     </row>
     <row r="333" spans="1:5" ht="15.6">
       <c r="A333" s="54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B333" s="55">
         <v>35439</v>
@@ -7542,7 +7536,7 @@
     </row>
     <row r="334" spans="1:5" ht="15.6">
       <c r="A334" s="54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B334" s="55">
         <v>35255</v>
@@ -7559,7 +7553,7 @@
     </row>
     <row r="335" spans="1:5" ht="15.6">
       <c r="A335" s="54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B335" s="55">
         <v>28963</v>
@@ -7576,7 +7570,7 @@
     </row>
     <row r="336" spans="1:5" ht="15.6">
       <c r="A336" s="57" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B336" s="58">
         <v>25611</v>
@@ -7585,7 +7579,7 @@
         <v>6</v>
       </c>
       <c r="D336" s="52" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="E336" s="44">
         <v>2</v>
@@ -7593,7 +7587,7 @@
     </row>
     <row r="337" spans="1:5" ht="15.6">
       <c r="A337" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B337" s="58">
         <v>39017</v>
@@ -7602,7 +7596,7 @@
         <v>10</v>
       </c>
       <c r="D337" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E337" s="44">
         <v>2</v>
@@ -7610,7 +7604,7 @@
     </row>
     <row r="338" spans="1:5" ht="15.6">
       <c r="A338" s="57" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B338" s="58">
         <v>39572</v>
@@ -7619,7 +7613,7 @@
         <v>10</v>
       </c>
       <c r="D338" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E338" s="44">
         <v>2</v>
@@ -7627,7 +7621,7 @@
     </row>
     <row r="339" spans="1:5" ht="15.6">
       <c r="A339" s="57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B339" s="58">
         <v>40156</v>
@@ -7636,7 +7630,7 @@
         <v>10</v>
       </c>
       <c r="D339" s="52" t="s">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="E339" s="44">
         <v>2</v>
